--- a/output/ITAÚ_11390053000182.xlsx
+++ b/output/ITAÚ_11390053000182.xlsx
@@ -1791,10 +1791,10 @@
         <v>44165</v>
       </c>
       <c r="B128">
-        <v>3.123853</v>
+        <v>3.125692</v>
       </c>
       <c r="C128">
-        <v>-0.004896498790293413</v>
+        <v>-0.004452740164870739</v>
       </c>
     </row>
   </sheetData>

--- a/output/ITAÚ_11390053000182.xlsx
+++ b/output/ITAÚ_11390053000182.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ITAÚ PRIVATE HEDGE PLUS MULTIMERCADO - FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1415 +383,1034 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C128"/>
+  <dimension ref="A1:B128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>40329</v>
       </c>
       <c r="B2">
-        <v>-0.00994510000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>40359</v>
       </c>
       <c r="B3">
-        <v>-0.004175900000000121</v>
-      </c>
-      <c r="C3">
         <v>0.005827151605431125</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>40390</v>
       </c>
       <c r="B4">
-        <v>0.006017399999999951</v>
-      </c>
-      <c r="C4">
         <v>0.01023604469905881</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>40421</v>
       </c>
       <c r="B5">
-        <v>0.014872</v>
-      </c>
-      <c r="C5">
         <v>0.008801637029339782</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>40451</v>
       </c>
       <c r="B6">
-        <v>0.03158349999999999</v>
-      </c>
-      <c r="C6">
         <v>0.01646660859694626</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>40482</v>
       </c>
       <c r="B7">
-        <v>0.05254819999999993</v>
-      </c>
-      <c r="C7">
         <v>0.02032283377933042</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>40512</v>
       </c>
       <c r="B8">
-        <v>0.07017600000000002</v>
-      </c>
-      <c r="C8">
         <v>0.01674773658821516</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>40543</v>
       </c>
       <c r="B9">
-        <v>0.08538690000000004</v>
-      </c>
-      <c r="C9">
         <v>0.01421345647818684</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>40574</v>
       </c>
       <c r="B10">
-        <v>0.1004512</v>
-      </c>
-      <c r="C10">
         <v>0.01387919828404049</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>40602</v>
       </c>
       <c r="B11">
-        <v>0.1031724000000001</v>
-      </c>
-      <c r="C11">
         <v>0.002472803882625607</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>40633</v>
       </c>
       <c r="B12">
-        <v>0.1150563</v>
-      </c>
-      <c r="C12">
         <v>0.01077247762906319</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>40663</v>
       </c>
       <c r="B13">
-        <v>0.1273168999999998</v>
-      </c>
-      <c r="C13">
         <v>0.01099549861293991</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>40694</v>
       </c>
       <c r="B14">
-        <v>0.1367494</v>
-      </c>
-      <c r="C14">
         <v>0.008367212449312378</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>40724</v>
       </c>
       <c r="B15">
-        <v>0.1485848999999999</v>
-      </c>
-      <c r="C15">
         <v>0.01041170551750437</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>40755</v>
       </c>
       <c r="B16">
-        <v>0.1609272000000002</v>
-      </c>
-      <c r="C16">
         <v>0.01074565754782286</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>40786</v>
       </c>
       <c r="B17">
-        <v>0.1666367</v>
-      </c>
-      <c r="C17">
         <v>0.004918051709013049</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>40816</v>
       </c>
       <c r="B18">
-        <v>0.1725477</v>
-      </c>
-      <c r="C18">
         <v>0.00506670157042044</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>40847</v>
       </c>
       <c r="B19">
-        <v>0.214329</v>
-      </c>
-      <c r="C19">
         <v>0.03563292137283636</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>40877</v>
       </c>
       <c r="B20">
-        <v>0.2174879000000001</v>
-      </c>
-      <c r="C20">
         <v>0.002601354328192862</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>40908</v>
       </c>
       <c r="B21">
-        <v>0.1883869</v>
-      </c>
-      <c r="C21">
         <v>-0.0239024962794292</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>40939</v>
       </c>
       <c r="B22">
-        <v>0.2296832</v>
-      </c>
-      <c r="C22">
         <v>0.03474987817519692</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>40968</v>
       </c>
       <c r="B23">
-        <v>0.2421142000000001</v>
-      </c>
-      <c r="C23">
         <v>0.01010910777670215</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>40999</v>
       </c>
       <c r="B24">
-        <v>0.2581256000000001</v>
-      </c>
-      <c r="C24">
         <v>0.01289044115267335</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>41029</v>
       </c>
       <c r="B25">
-        <v>0.2668288000000001</v>
-      </c>
-      <c r="C25">
         <v>0.006917592329414468</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>41060</v>
       </c>
       <c r="B26">
-        <v>0.2838581</v>
-      </c>
-      <c r="C26">
         <v>0.01344246357518863</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>41090</v>
       </c>
       <c r="B27">
-        <v>0.2964990000000001</v>
-      </c>
-      <c r="C27">
         <v>0.009846025818585513</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>41121</v>
       </c>
       <c r="B28">
-        <v>0.3096846</v>
-      </c>
-      <c r="C28">
         <v>0.01017015824925416</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>41152</v>
       </c>
       <c r="B29">
-        <v>0.3149380000000002</v>
-      </c>
-      <c r="C29">
         <v>0.004011194756355918</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>41182</v>
       </c>
       <c r="B30">
-        <v>0.3086433</v>
-      </c>
-      <c r="C30">
         <v>-0.004787069808614763</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>41213</v>
       </c>
       <c r="B31">
-        <v>0.3034422999999999</v>
-      </c>
-      <c r="C31">
         <v>-0.003974345033516791</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>41243</v>
       </c>
       <c r="B32">
-        <v>0.3113562000000001</v>
-      </c>
-      <c r="C32">
         <v>0.006071538417926181</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>41274</v>
       </c>
       <c r="B33">
-        <v>0.3564201</v>
-      </c>
-      <c r="C33">
         <v>0.03436434738326621</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>41305</v>
       </c>
       <c r="B34">
-        <v>0.3684270000000001</v>
-      </c>
-      <c r="C34">
         <v>0.008851903624843116</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>41333</v>
       </c>
       <c r="B35">
-        <v>0.3681475999999999</v>
-      </c>
-      <c r="C35">
         <v>-0.0002041760356965572</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>41364</v>
       </c>
       <c r="B36">
-        <v>0.399686</v>
-      </c>
-      <c r="C36">
         <v>0.02305189878635905</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>41394</v>
       </c>
       <c r="B37">
-        <v>0.4021143</v>
-      </c>
-      <c r="C37">
         <v>0.001734889110843518</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>41425</v>
       </c>
       <c r="B38">
-        <v>0.4221676999999999</v>
-      </c>
-      <c r="C38">
         <v>0.01430225766900728</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>41455</v>
       </c>
       <c r="B39">
-        <v>0.4480255</v>
-      </c>
-      <c r="C39">
         <v>0.01818196264758365</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>41486</v>
       </c>
       <c r="B40">
-        <v>0.4593560000000001</v>
-      </c>
-      <c r="C40">
         <v>0.007824793140728703</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>41517</v>
       </c>
       <c r="B41">
-        <v>0.4704834</v>
-      </c>
-      <c r="C41">
         <v>0.007624870148202234</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>41547</v>
       </c>
       <c r="B42">
-        <v>0.4983527999999999</v>
-      </c>
-      <c r="C42">
         <v>0.01895254308889172</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>41578</v>
       </c>
       <c r="B43">
-        <v>0.5097167</v>
-      </c>
-      <c r="C43">
         <v>0.00758426186409511</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>41608</v>
       </c>
       <c r="B44">
-        <v>0.5277665</v>
-      </c>
-      <c r="C44">
         <v>0.01195575302306717</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>41639</v>
       </c>
       <c r="B45">
-        <v>0.5586537999999999</v>
-      </c>
-      <c r="C45">
         <v>0.02021729105854853</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>41670</v>
       </c>
       <c r="B46">
-        <v>0.5795135999999999</v>
-      </c>
-      <c r="C46">
         <v>0.01338321569549317</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>41698</v>
       </c>
       <c r="B47">
-        <v>0.5995355</v>
-      </c>
-      <c r="C47">
         <v>0.0126759908873213</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>41729</v>
       </c>
       <c r="B48">
-        <v>0.6172137</v>
-      </c>
-      <c r="C48">
         <v>0.01105208355800791</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>41759</v>
       </c>
       <c r="B49">
-        <v>0.6330214999999999</v>
-      </c>
-      <c r="C49">
         <v>0.009774713137787439</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>41790</v>
       </c>
       <c r="B50">
-        <v>0.6558699000000001</v>
-      </c>
-      <c r="C50">
         <v>0.01399148755849211</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>41820</v>
       </c>
       <c r="B51">
-        <v>0.6713563</v>
-      </c>
-      <c r="C51">
         <v>0.009352425574013834</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>41851</v>
       </c>
       <c r="B52">
-        <v>0.6934102</v>
-      </c>
-      <c r="C52">
         <v>0.01319521157756731</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>41882</v>
       </c>
       <c r="B53">
-        <v>0.7031266999999999</v>
-      </c>
-      <c r="C53">
         <v>0.005737830089838747</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>41912</v>
       </c>
       <c r="B54">
-        <v>0.7173912999999998</v>
-      </c>
-      <c r="C54">
         <v>0.008375536593959731</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>41943</v>
       </c>
       <c r="B55">
-        <v>0.7081474000000001</v>
-      </c>
-      <c r="C55">
         <v>-0.005382524064259431</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>41973</v>
       </c>
       <c r="B56">
-        <v>0.7182333000000001</v>
-      </c>
-      <c r="C56">
         <v>0.005904584112588873</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>42004</v>
       </c>
       <c r="B57">
-        <v>0.7235472000000001</v>
-      </c>
-      <c r="C57">
         <v>0.003092653366687736</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>42035</v>
       </c>
       <c r="B58">
-        <v>0.7381491</v>
-      </c>
-      <c r="C58">
         <v>0.008472004712142489</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>42063</v>
       </c>
       <c r="B59">
-        <v>0.7690819999999998</v>
-      </c>
-      <c r="C59">
         <v>0.01779645946369035</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>42094</v>
       </c>
       <c r="B60">
-        <v>0.7949248</v>
-      </c>
-      <c r="C60">
         <v>0.01460802834464436</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>42124</v>
       </c>
       <c r="B61">
-        <v>0.7979259999999999</v>
-      </c>
-      <c r="C61">
         <v>0.001672047764897933</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>42155</v>
       </c>
       <c r="B62">
-        <v>0.8400331000000001</v>
-      </c>
-      <c r="C62">
         <v>0.02341981816826721</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>42185</v>
       </c>
       <c r="B63">
-        <v>0.8595488</v>
-      </c>
-      <c r="C63">
         <v>0.01060616789991431</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>42216</v>
       </c>
       <c r="B64">
-        <v>0.8995117000000001</v>
-      </c>
-      <c r="C64">
         <v>0.02149064332164885</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>42247</v>
       </c>
       <c r="B65">
-        <v>0.8680037999999999</v>
-      </c>
-      <c r="C65">
         <v>-0.01658736821678974</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>42277</v>
       </c>
       <c r="B66">
-        <v>0.918938</v>
-      </c>
-      <c r="C66">
         <v>0.02726664688797742</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>42308</v>
       </c>
       <c r="B67">
-        <v>0.9261495</v>
-      </c>
-      <c r="C67">
         <v>0.003758068264842374</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>42338</v>
       </c>
       <c r="B68">
-        <v>0.9107233000000001</v>
-      </c>
-      <c r="C68">
         <v>-0.008008827975190869</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>42369</v>
       </c>
       <c r="B69">
-        <v>0.8680700000000001</v>
-      </c>
-      <c r="C69">
         <v>-0.02232311711486434</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>42400</v>
       </c>
       <c r="B70">
-        <v>0.8854669999999998</v>
-      </c>
-      <c r="C70">
         <v>0.00931282018339763</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>42429</v>
       </c>
       <c r="B71">
-        <v>0.8514672000000001</v>
-      </c>
-      <c r="C71">
         <v>-0.01803256169426448</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>42460</v>
       </c>
       <c r="B72">
-        <v>0.9225094999999999</v>
-      </c>
-      <c r="C72">
         <v>0.03837081207811832</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>42490</v>
       </c>
       <c r="B73">
-        <v>0.9886737000000001</v>
-      </c>
-      <c r="C73">
         <v>0.03441553864883384</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>42521</v>
       </c>
       <c r="B74">
-        <v>0.9777588000000002</v>
-      </c>
-      <c r="C74">
         <v>-0.005488532382159961</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>42551</v>
       </c>
       <c r="B75">
-        <v>1.0674271</v>
-      </c>
-      <c r="C75">
         <v>0.04533833953867372</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>42582</v>
       </c>
       <c r="B76">
-        <v>1.1057971</v>
-      </c>
-      <c r="C76">
         <v>0.01855930010784879</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>42613</v>
       </c>
       <c r="B77">
-        <v>1.1361901</v>
-      </c>
-      <c r="C77">
         <v>0.01443301446278955</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>42643</v>
       </c>
       <c r="B78">
-        <v>1.202905</v>
-      </c>
-      <c r="C78">
         <v>0.03123078793408895</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>42674</v>
       </c>
       <c r="B79">
-        <v>1.2634036</v>
-      </c>
-      <c r="C79">
         <v>0.02746309986131923</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>42704</v>
       </c>
       <c r="B80">
-        <v>1.3231787</v>
-      </c>
-      <c r="C80">
         <v>0.02640938628886169</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>42735</v>
       </c>
       <c r="B81">
-        <v>1.3751045</v>
-      </c>
-      <c r="C81">
         <v>0.02235118632931665</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>42766</v>
       </c>
       <c r="B82">
-        <v>1.4408129</v>
-      </c>
-      <c r="C82">
         <v>0.02766547745583403</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>42794</v>
       </c>
       <c r="B83">
-        <v>1.492843</v>
-      </c>
-      <c r="C83">
         <v>0.02131670969126698</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>42825</v>
       </c>
       <c r="B84">
-        <v>1.5257228</v>
-      </c>
-      <c r="C84">
         <v>0.01318967941422722</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>42855</v>
       </c>
       <c r="B85">
-        <v>1.5379236</v>
-      </c>
-      <c r="C85">
         <v>0.0048306171999557</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>42886</v>
       </c>
       <c r="B86">
-        <v>1.4554689</v>
-      </c>
-      <c r="C86">
         <v>-0.03248903946517534</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>42916</v>
       </c>
       <c r="B87">
-        <v>1.4722765</v>
-      </c>
-      <c r="C87">
         <v>0.006844965537946779</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>42947</v>
       </c>
       <c r="B88">
-        <v>1.5091057</v>
-      </c>
-      <c r="C88">
         <v>0.01489687743260104</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>42978</v>
       </c>
       <c r="B89">
-        <v>1.5319674</v>
-      </c>
-      <c r="C89">
         <v>0.009111493389855951</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>43008</v>
       </c>
       <c r="B90">
-        <v>1.6262933</v>
-      </c>
-      <c r="C90">
         <v>0.03725399466043666</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>43039</v>
       </c>
       <c r="B91">
-        <v>1.6309085</v>
-      </c>
-      <c r="C91">
         <v>0.001757305629192185</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>43069</v>
       </c>
       <c r="B92">
-        <v>1.6373888</v>
-      </c>
-      <c r="C92">
         <v>0.002463141534568836</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>43100</v>
       </c>
       <c r="B93">
-        <v>1.6519307</v>
-      </c>
-      <c r="C93">
         <v>0.005513749053609462</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>43131</v>
       </c>
       <c r="B94">
-        <v>1.7093559</v>
-      </c>
-      <c r="C94">
         <v>0.02165411034307918</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>43159</v>
       </c>
       <c r="B95">
-        <v>1.7398121</v>
-      </c>
-      <c r="C95">
         <v>0.01124112192126558</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>43190</v>
       </c>
       <c r="B96">
-        <v>1.7696293</v>
-      </c>
-      <c r="C96">
         <v>0.01088293609623814</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>43220</v>
       </c>
       <c r="B97">
-        <v>1.7796124</v>
-      </c>
-      <c r="C97">
         <v>0.003604489597217819</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>43251</v>
       </c>
       <c r="B98">
-        <v>1.8341517</v>
-      </c>
-      <c r="C98">
         <v>0.01962118891108711</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>43281</v>
       </c>
       <c r="B99">
-        <v>1.9580032</v>
-      </c>
-      <c r="C99">
         <v>0.04369967211000025</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>43312</v>
       </c>
       <c r="B100">
-        <v>1.9390509</v>
-      </c>
-      <c r="C100">
         <v>-0.0064071262668004</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>43343</v>
       </c>
       <c r="B101">
-        <v>1.9706115</v>
-      </c>
-      <c r="C101">
         <v>0.01073836455163124</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>43373</v>
       </c>
       <c r="B102">
-        <v>1.9577053</v>
-      </c>
-      <c r="C102">
         <v>-0.00434462736039376</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>43404</v>
       </c>
       <c r="B103">
-        <v>2.0506569</v>
-      </c>
-      <c r="C103">
         <v>0.0314269308710371</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>43434</v>
       </c>
       <c r="B104">
-        <v>2.0312907</v>
-      </c>
-      <c r="C104">
         <v>-0.006348206512505561</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>43465</v>
       </c>
       <c r="B105">
-        <v>2.0698431</v>
-      </c>
-      <c r="C105">
         <v>0.01271814676170768</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>43496</v>
       </c>
       <c r="B106">
-        <v>2.1214375</v>
-      </c>
-      <c r="C106">
         <v>0.01680685244141622</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>43524</v>
       </c>
       <c r="B107">
-        <v>2.0825522</v>
-      </c>
-      <c r="C107">
         <v>-0.01245749754720382</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>43555</v>
       </c>
       <c r="B108">
-        <v>2.1026554</v>
-      </c>
-      <c r="C108">
         <v>0.006521608944692003</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>43585</v>
       </c>
       <c r="B109">
-        <v>2.1190737</v>
-      </c>
-      <c r="C109">
         <v>0.005291693044609413</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>43616</v>
       </c>
       <c r="B110">
-        <v>2.1412359</v>
-      </c>
-      <c r="C110">
         <v>0.007105378753955005</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>43646</v>
       </c>
       <c r="B111">
-        <v>2.2363381</v>
-      </c>
-      <c r="C111">
         <v>0.03027540847855459</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>43677</v>
       </c>
       <c r="B112">
-        <v>2.2593546</v>
-      </c>
-      <c r="C112">
         <v>0.007111896003696438</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>43708</v>
       </c>
       <c r="B113">
-        <v>2.3225396</v>
-      </c>
-      <c r="C113">
         <v>0.01938573974123581</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>43738</v>
       </c>
       <c r="B114">
-        <v>2.3096799</v>
-      </c>
-      <c r="C114">
         <v>-0.003870442958753717</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>43769</v>
       </c>
       <c r="B115">
-        <v>2.370615</v>
-      </c>
-      <c r="C115">
         <v>0.01841117625906974</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>43799</v>
       </c>
       <c r="B116">
-        <v>2.4279585</v>
-      </c>
-      <c r="C116">
         <v>0.01701277066648066</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>43830</v>
       </c>
       <c r="B117">
-        <v>2.5224786</v>
-      </c>
-      <c r="C117">
         <v>0.02757329180035306</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>43861</v>
       </c>
       <c r="B118">
-        <v>2.5485344</v>
-      </c>
-      <c r="C118">
         <v>0.007397007323195481</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>43890</v>
       </c>
       <c r="B119">
-        <v>2.595078500000001</v>
-      </c>
-      <c r="C119">
         <v>0.01311642913761824</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>43921</v>
       </c>
       <c r="B120">
-        <v>2.943976</v>
-      </c>
-      <c r="C120">
         <v>0.09704864580842942</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>43951</v>
       </c>
       <c r="B121">
-        <v>3.005629900000001</v>
-      </c>
-      <c r="C121">
         <v>0.01563242271251153</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>43982</v>
       </c>
       <c r="B122">
-        <v>3.004334999999999</v>
-      </c>
-      <c r="C122">
         <v>-0.0003232700055492144</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>44012</v>
       </c>
       <c r="B123">
-        <v>3.0847567</v>
-      </c>
-      <c r="C123">
         <v>0.02008365933419665</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>44043</v>
       </c>
       <c r="B124">
-        <v>3.1100629</v>
-      </c>
-      <c r="C124">
         <v>0.006195277187500681</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>44074</v>
       </c>
       <c r="B125">
-        <v>3.1706756</v>
-      </c>
-      <c r="C125">
         <v>0.01474738987571222</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>44104</v>
       </c>
       <c r="B126">
-        <v>3.1219552</v>
-      </c>
-      <c r="C126">
         <v>-0.01168165656422659</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>44135</v>
       </c>
       <c r="B127">
-        <v>3.1441448</v>
-      </c>
-      <c r="C127">
         <v>0.00538327054112564</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>44165</v>
       </c>
       <c r="B128">
-        <v>3.125692</v>
-      </c>
-      <c r="C128">
-        <v>-0.004452740164870739</v>
+        <v>-0.004492820810701348</v>
       </c>
     </row>
   </sheetData>
